--- a/Documents/Work.xlsx
+++ b/Documents/Work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Desktop\Bot\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D910BE4B-D0FB-440E-982A-77464395F3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5812D7-44CB-4DF2-909F-E9A954DD4F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{7E45A81F-4275-4689-852D-27B4F6B91539}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>คำ 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>ตอบ 1</t>
   </si>
@@ -46,18 +43,12 @@
     <t>คำ 2</t>
   </si>
   <si>
-    <t>ตอบ 2</t>
-  </si>
-  <si>
     <t>คำ 3</t>
   </si>
   <si>
     <t>ตอบ 4</t>
   </si>
   <si>
-    <t>ตอบ 3</t>
-  </si>
-  <si>
     <t>คำ 4</t>
   </si>
   <si>
@@ -79,7 +70,139 @@
     <t>&lt;---Your token here</t>
   </si>
   <si>
-    <t>52wAxAS2DASe3jQe2OeSddSDEzIx.qweLqwe5qw2ewq180AweqeycGe4PdzHTccc</t>
+    <t>ต้องการไร</t>
+  </si>
+  <si>
+    <t>อะไรวะไอโง่</t>
+  </si>
+  <si>
+    <t>เสือกอะไรวะ</t>
+  </si>
+  <si>
+    <t>ชีวิตมีไว้ทำไม</t>
+  </si>
+  <si>
+    <t>งงกับชีวิตแท้</t>
+  </si>
+  <si>
+    <t>อะไรของเอง</t>
+  </si>
+  <si>
+    <t>โง่โง่โง่</t>
+  </si>
+  <si>
+    <t>โล</t>
+  </si>
+  <si>
+    <t>ยัยซึน</t>
+  </si>
+  <si>
+    <t>ยัย</t>
+  </si>
+  <si>
+    <t>เฮย</t>
+  </si>
+  <si>
+    <t>เฮ่ย</t>
+  </si>
+  <si>
+    <t>เออ</t>
+  </si>
+  <si>
+    <t>แค่นี้คิดไม่ได้ 555 โง่</t>
+  </si>
+  <si>
+    <t>กากจริงๆทำแค่นี้ไม่ได้</t>
+  </si>
+  <si>
+    <t>555555 โง่</t>
+  </si>
+  <si>
+    <t>ไอตายซะ</t>
+  </si>
+  <si>
+    <t>อาไรวะ</t>
+  </si>
+  <si>
+    <t>ตอบถามเลขมา</t>
+  </si>
+  <si>
+    <t>เรียก ยัยซึน</t>
+  </si>
+  <si>
+    <t>งุ้ง</t>
+  </si>
+  <si>
+    <t>งะ</t>
+  </si>
+  <si>
+    <t>อะ</t>
+  </si>
+  <si>
+    <t>อิอิ</t>
+  </si>
+  <si>
+    <t>อิ</t>
+  </si>
+  <si>
+    <t>มุ</t>
+  </si>
+  <si>
+    <t>สวยพี่สวย</t>
+  </si>
+  <si>
+    <t>สวย พี่สวย</t>
+  </si>
+  <si>
+    <t>อายไร</t>
+  </si>
+  <si>
+    <t>อะไรนะ</t>
+  </si>
+  <si>
+    <t>นีม้น</t>
+  </si>
+  <si>
+    <t>เป็นอะไร</t>
+  </si>
+  <si>
+    <t>ดูนิสัยเป็นเด็กไปได้</t>
+  </si>
+  <si>
+    <t>โตโตกันแล้วพิมมั่วมาอีก</t>
+  </si>
+  <si>
+    <t>kuy</t>
+  </si>
+  <si>
+    <t>ควย</t>
+  </si>
+  <si>
+    <t>โง่</t>
+  </si>
+  <si>
+    <t>เอง</t>
+  </si>
+  <si>
+    <t>นี้</t>
+  </si>
+  <si>
+    <t>สวยยยย</t>
+  </si>
+  <si>
+    <t>งง.....</t>
+  </si>
+  <si>
+    <t>การกระทำ...มันแย่</t>
+  </si>
+  <si>
+    <t>พิมอะไรไม่เข้าใจ</t>
+  </si>
+  <si>
+    <t>ตอบคำ3</t>
+  </si>
+  <si>
+    <t>AaAWJAoekLWPWMAWPNDI0NzIx.Y*******************</t>
   </si>
 </sst>
 </file>
@@ -125,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -141,7 +264,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -437,50 +560,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F232DDB-29A4-44A8-A75F-27857A608FBC}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -494,28 +787,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89" customWidth="1"/>
+    <col min="1" max="1" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>